--- a/Hybrid_Fund_Direct_Performance.xlsx
+++ b/Hybrid_Fund_Direct_Performance.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Aggressive Hybrid" sheetId="1" r:id="rId1"/>
+    <sheet name="Conservative Hybrid" sheetId="2" r:id="rId2"/>
+    <sheet name="Equity Savings" sheetId="3" r:id="rId3"/>
+    <sheet name="Arbitrage" sheetId="4" r:id="rId4"/>
+    <sheet name="Multi Asset Allocation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="525">
   <si>
     <t>scheme_name</t>
   </si>
@@ -157,358 +161,1438 @@
     <t>NIFTY 50 TRI(70.00), CRISIL Composite Bond TRI(30.00)</t>
   </si>
   <si>
-    <t>995.7400</t>
-  </si>
-  <si>
-    <t>13.8300</t>
-  </si>
-  <si>
-    <t>76.0800</t>
-  </si>
-  <si>
-    <t>17.2433</t>
-  </si>
-  <si>
-    <t>17.7500</t>
-  </si>
-  <si>
-    <t>228.3000</t>
-  </si>
-  <si>
-    <t>219.9450</t>
-  </si>
-  <si>
-    <t>34.5700</t>
-  </si>
-  <si>
-    <t>12.9595</t>
-  </si>
-  <si>
-    <t>168.5505</t>
-  </si>
-  <si>
-    <t>72.0980</t>
-  </si>
-  <si>
-    <t>14.3749</t>
-  </si>
-  <si>
-    <t>188.1300</t>
-  </si>
-  <si>
-    <t>14.8730</t>
-  </si>
-  <si>
-    <t>15.3400</t>
-  </si>
-  <si>
-    <t>13.7058</t>
-  </si>
-  <si>
-    <t>13.3106</t>
-  </si>
-  <si>
-    <t>63.5134</t>
-  </si>
-  <si>
-    <t>23.1050</t>
-  </si>
-  <si>
-    <t>133.2273</t>
-  </si>
-  <si>
-    <t>24.2396</t>
-  </si>
-  <si>
-    <t>35.3790</t>
-  </si>
-  <si>
-    <t>14.5199</t>
-  </si>
-  <si>
-    <t>20.9750</t>
-  </si>
-  <si>
-    <t>14.4942</t>
-  </si>
-  <si>
-    <t>61.9904</t>
-  </si>
-  <si>
-    <t>93.4300</t>
-  </si>
-  <si>
-    <t>103.6500</t>
-  </si>
-  <si>
-    <t>208.9385</t>
-  </si>
-  <si>
-    <t>187.8909</t>
-  </si>
-  <si>
-    <t>21.8591</t>
-  </si>
-  <si>
-    <t>121.9333</t>
-  </si>
-  <si>
-    <t>284.9010</t>
-  </si>
-  <si>
-    <t>218.4004</t>
-  </si>
-  <si>
-    <t>29.26</t>
-  </si>
-  <si>
-    <t>23.04</t>
-  </si>
-  <si>
-    <t>27.95</t>
-  </si>
-  <si>
-    <t>27.81</t>
-  </si>
-  <si>
-    <t>35.91</t>
-  </si>
-  <si>
-    <t>26.75</t>
-  </si>
-  <si>
-    <t>24.56</t>
-  </si>
-  <si>
-    <t>26.08</t>
-  </si>
-  <si>
-    <t>17.22</t>
-  </si>
-  <si>
-    <t>29.60</t>
-  </si>
-  <si>
-    <t>30.82</t>
-  </si>
-  <si>
-    <t>26.26</t>
-  </si>
-  <si>
-    <t>32.98</t>
-  </si>
-  <si>
-    <t>23.41</t>
-  </si>
-  <si>
-    <t>28.26</t>
-  </si>
-  <si>
-    <t>25.19</t>
-  </si>
-  <si>
-    <t>19.33</t>
-  </si>
-  <si>
-    <t>45.30</t>
-  </si>
-  <si>
-    <t>33.78</t>
-  </si>
-  <si>
-    <t>15.66</t>
-  </si>
-  <si>
-    <t>17.70</t>
-  </si>
-  <si>
-    <t>25.05</t>
-  </si>
-  <si>
-    <t>30.78</t>
-  </si>
-  <si>
-    <t>29.30</t>
-  </si>
-  <si>
-    <t>24.87</t>
-  </si>
-  <si>
-    <t>25.81</t>
-  </si>
-  <si>
-    <t>25.38</t>
-  </si>
-  <si>
-    <t>27.98</t>
-  </si>
-  <si>
-    <t>48.75</t>
-  </si>
-  <si>
-    <t>22.14</t>
-  </si>
-  <si>
-    <t>21.71</t>
-  </si>
-  <si>
-    <t>21.98</t>
-  </si>
-  <si>
-    <t>28.02</t>
-  </si>
-  <si>
-    <t>32.48</t>
+    <t>1,000.5700</t>
+  </si>
+  <si>
+    <t>13.7600</t>
+  </si>
+  <si>
+    <t>76.4000</t>
+  </si>
+  <si>
+    <t>17.1080</t>
+  </si>
+  <si>
+    <t>17.8900</t>
+  </si>
+  <si>
+    <t>228.6000</t>
+  </si>
+  <si>
+    <t>219.0160</t>
+  </si>
+  <si>
+    <t>34.5600</t>
+  </si>
+  <si>
+    <t>12.9443</t>
+  </si>
+  <si>
+    <t>168.8834</t>
+  </si>
+  <si>
+    <t>71.7590</t>
+  </si>
+  <si>
+    <t>14.3876</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>14.7757</t>
+  </si>
+  <si>
+    <t>15.3000</t>
+  </si>
+  <si>
+    <t>13.7358</t>
+  </si>
+  <si>
+    <t>13.2905</t>
+  </si>
+  <si>
+    <t>63.9046</t>
+  </si>
+  <si>
+    <t>23.1120</t>
+  </si>
+  <si>
+    <t>133.0928</t>
+  </si>
+  <si>
+    <t>24.0849</t>
+  </si>
+  <si>
+    <t>35.2600</t>
+  </si>
+  <si>
+    <t>14.5605</t>
+  </si>
+  <si>
+    <t>20.9380</t>
+  </si>
+  <si>
+    <t>14.4175</t>
+  </si>
+  <si>
+    <t>62.1090</t>
+  </si>
+  <si>
+    <t>93.2200</t>
+  </si>
+  <si>
+    <t>103.4000</t>
+  </si>
+  <si>
+    <t>213.1182</t>
+  </si>
+  <si>
+    <t>187.3352</t>
+  </si>
+  <si>
+    <t>21.7229</t>
+  </si>
+  <si>
+    <t>121.8764</t>
+  </si>
+  <si>
+    <t>282.2005</t>
+  </si>
+  <si>
+    <t>217.9989</t>
+  </si>
+  <si>
+    <t>49.05</t>
+  </si>
+  <si>
+    <t>39.70</t>
+  </si>
+  <si>
+    <t>48.61</t>
+  </si>
+  <si>
+    <t>43.62</t>
+  </si>
+  <si>
+    <t>53.69</t>
+  </si>
+  <si>
+    <t>42.83</t>
+  </si>
+  <si>
+    <t>40.79</t>
+  </si>
+  <si>
+    <t>45.58</t>
+  </si>
+  <si>
+    <t>36.03</t>
+  </si>
+  <si>
+    <t>49.01</t>
+  </si>
+  <si>
+    <t>50.22</t>
+  </si>
+  <si>
+    <t>44.67</t>
+  </si>
+  <si>
+    <t>55.84</t>
+  </si>
+  <si>
+    <t>37.86</t>
+  </si>
+  <si>
+    <t>50.29</t>
+  </si>
+  <si>
+    <t>44.13</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>66.68</t>
+  </si>
+  <si>
+    <t>56.17</t>
+  </si>
+  <si>
+    <t>31.76</t>
+  </si>
+  <si>
+    <t>34.04</t>
+  </si>
+  <si>
+    <t>44.26</t>
+  </si>
+  <si>
+    <t>48.18</t>
+  </si>
+  <si>
+    <t>49.23</t>
+  </si>
+  <si>
+    <t>40.45</t>
+  </si>
+  <si>
+    <t>45.66</t>
+  </si>
+  <si>
+    <t>46.98</t>
+  </si>
+  <si>
+    <t>79.80</t>
+  </si>
+  <si>
+    <t>37.71</t>
+  </si>
+  <si>
+    <t>36.99</t>
+  </si>
+  <si>
+    <t>39.46</t>
+  </si>
+  <si>
+    <t>46.07</t>
+  </si>
+  <si>
+    <t>54.49</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>16.40</t>
+  </si>
+  <si>
+    <t>7.32</t>
+  </si>
+  <si>
+    <t>15.11</t>
+  </si>
+  <si>
+    <t>13.62</t>
+  </si>
+  <si>
+    <t>12.83</t>
+  </si>
+  <si>
+    <t>12.37</t>
+  </si>
+  <si>
+    <t>10.86</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>9.76</t>
+  </si>
+  <si>
+    <t>11.41</t>
+  </si>
+  <si>
+    <t>13.93</t>
+  </si>
+  <si>
+    <t>10.21</t>
+  </si>
+  <si>
+    <t>10.35</t>
+  </si>
+  <si>
+    <t>9.22</t>
+  </si>
+  <si>
+    <t>14.65</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>10.03</t>
+  </si>
+  <si>
+    <t>18.93</t>
+  </si>
+  <si>
+    <t>13.32</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>12.58</t>
+  </si>
+  <si>
+    <t>10.40</t>
+  </si>
+  <si>
+    <t>8.47</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>16.78</t>
+  </si>
+  <si>
+    <t>15.91</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>13.43</t>
+  </si>
+  <si>
+    <t>14.78</t>
+  </si>
+  <si>
+    <t>15.81</t>
+  </si>
+  <si>
+    <t>11.53</t>
+  </si>
+  <si>
+    <t>15.73</t>
+  </si>
+  <si>
+    <t>11.98</t>
+  </si>
+  <si>
+    <t>12.21</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>16.98</t>
+  </si>
+  <si>
+    <t>11.57</t>
+  </si>
+  <si>
+    <t>16.17</t>
+  </si>
+  <si>
+    <t>16.83</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>11.97</t>
+  </si>
+  <si>
+    <t>15.06</t>
+  </si>
+  <si>
+    <t>11.79</t>
+  </si>
+  <si>
+    <t>12.59</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Axis Regular Saver Fund</t>
+  </si>
+  <si>
+    <t>Baroda Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>DSP Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Essel Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>HDFC Hybrid Debt Fund</t>
+  </si>
+  <si>
+    <t>HSBC Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>IDFC Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Savings Income Fund</t>
+  </si>
+  <si>
+    <t>Kotak Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Hybrid Bond Fund</t>
+  </si>
+  <si>
+    <t>SBI Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Debt Oriented Hybrid Fund</t>
+  </si>
+  <si>
+    <t>UTI Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 85+15 Conservative Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Short Duration Debt 25:75 Index</t>
+  </si>
+  <si>
+    <t>CRISIL Short Term Debt Hybrid 75+25 Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Composite Debt 15:85 Index</t>
+  </si>
+  <si>
+    <t>Nifty AAA Short Duration Bond(85.00), S&amp;P BSE 200 TRI(15.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 75+25 Conservative Total Return Index</t>
+  </si>
+  <si>
+    <t>49.6464</t>
+  </si>
+  <si>
+    <t>24.7176</t>
+  </si>
+  <si>
+    <t>31.3022</t>
+  </si>
+  <si>
+    <t>37.6054</t>
+  </si>
+  <si>
+    <t>22.1330</t>
+  </si>
+  <si>
+    <t>76.0748</t>
+  </si>
+  <si>
+    <t>44.4744</t>
+  </si>
+  <si>
+    <t>24.0803</t>
+  </si>
+  <si>
+    <t>68.1753</t>
+  </si>
+  <si>
+    <t>56.1804</t>
+  </si>
+  <si>
+    <t>45.6680</t>
+  </si>
+  <si>
+    <t>54.3139</t>
+  </si>
+  <si>
+    <t>26.4810</t>
+  </si>
+  <si>
+    <t>16.7147</t>
+  </si>
+  <si>
+    <t>41.9468</t>
+  </si>
+  <si>
+    <t>67.4518</t>
+  </si>
+  <si>
+    <t>42.3831</t>
+  </si>
+  <si>
+    <t>43.5281</t>
+  </si>
+  <si>
+    <t>51.2134</t>
+  </si>
+  <si>
+    <t>22.2999</t>
+  </si>
+  <si>
+    <t>48.7204</t>
+  </si>
+  <si>
+    <t>24.19</t>
+  </si>
+  <si>
+    <t>19.13</t>
+  </si>
+  <si>
+    <t>14.71</t>
+  </si>
+  <si>
+    <t>15.44</t>
+  </si>
+  <si>
+    <t>14.67</t>
+  </si>
+  <si>
+    <t>19.81</t>
+  </si>
+  <si>
+    <t>17.34</t>
+  </si>
+  <si>
+    <t>13.85</t>
+  </si>
+  <si>
+    <t>15.87</t>
+  </si>
+  <si>
+    <t>21.21</t>
+  </si>
+  <si>
+    <t>17.30</t>
+  </si>
+  <si>
+    <t>17.21</t>
+  </si>
+  <si>
+    <t>14.47</t>
+  </si>
+  <si>
+    <t>15.46</t>
+  </si>
+  <si>
+    <t>22.99</t>
+  </si>
+  <si>
+    <t>13.42</t>
+  </si>
+  <si>
+    <t>13.52</t>
+  </si>
+  <si>
+    <t>12.19</t>
+  </si>
+  <si>
+    <t>21.04</t>
+  </si>
+  <si>
+    <t>14.77</t>
+  </si>
+  <si>
+    <t>22.57</t>
+  </si>
+  <si>
+    <t>7.60</t>
+  </si>
+  <si>
+    <t>7.77</t>
+  </si>
+  <si>
+    <t>10.78</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>7.67</t>
+  </si>
+  <si>
+    <t>8.34</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
+    <t>10.04</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>10.49</t>
+  </si>
+  <si>
+    <t>7.97</t>
+  </si>
+  <si>
+    <t>7.66</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>10.64</t>
+  </si>
+  <si>
+    <t>8.55</t>
+  </si>
+  <si>
+    <t>9.81</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>10.65</t>
+  </si>
+  <si>
+    <t>8.35</t>
+  </si>
+  <si>
+    <t>8.48</t>
   </si>
   <si>
     <t>8.44</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>9.05</t>
-  </si>
-  <si>
-    <t>16.36</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>14.72</t>
-  </si>
-  <si>
-    <t>13.56</t>
-  </si>
-  <si>
-    <t>12.29</t>
-  </si>
-  <si>
-    <t>12.10</t>
-  </si>
-  <si>
-    <t>10.81</t>
-  </si>
-  <si>
-    <t>11.88</t>
-  </si>
-  <si>
-    <t>7.22</t>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>8.95</t>
+  </si>
+  <si>
+    <t>11.39</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>10.52</t>
+  </si>
+  <si>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>4.55</t>
   </si>
   <si>
     <t>9.69</t>
   </si>
   <si>
-    <t>10.80</t>
-  </si>
-  <si>
-    <t>13.68</t>
-  </si>
-  <si>
-    <t>9.78</t>
-  </si>
-  <si>
-    <t>10.21</t>
-  </si>
-  <si>
-    <t>9.16</t>
-  </si>
-  <si>
-    <t>14.27</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>9.80</t>
-  </si>
-  <si>
-    <t>17.55</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>10.41</t>
-  </si>
-  <si>
-    <t>12.56</t>
-  </si>
-  <si>
-    <t>10.49</t>
-  </si>
-  <si>
-    <t>8.16</t>
-  </si>
-  <si>
-    <t>12.54</t>
-  </si>
-  <si>
-    <t>13.04</t>
-  </si>
-  <si>
-    <t>16.75</t>
-  </si>
-  <si>
-    <t>16.01</t>
-  </si>
-  <si>
-    <t>13.22</t>
-  </si>
-  <si>
-    <t>13.46</t>
-  </si>
-  <si>
-    <t>15.02</t>
-  </si>
-  <si>
-    <t>15.93</t>
-  </si>
-  <si>
-    <t>11.44</t>
-  </si>
-  <si>
-    <t>15.95</t>
-  </si>
-  <si>
-    <t>12.04</t>
-  </si>
-  <si>
-    <t>12.34</t>
-  </si>
-  <si>
-    <t>12.91</t>
-  </si>
-  <si>
-    <t>17.02</t>
-  </si>
-  <si>
-    <t>9.58</t>
-  </si>
-  <si>
-    <t>11.63</t>
-  </si>
-  <si>
-    <t>16.32</t>
-  </si>
-  <si>
-    <t>16.46</t>
-  </si>
-  <si>
-    <t>14.78</t>
-  </si>
-  <si>
-    <t>15.09</t>
-  </si>
-  <si>
-    <t>12.08</t>
-  </si>
-  <si>
-    <t>12.75</t>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Axis Equity Saver Fund</t>
+  </si>
+  <si>
+    <t>Baroda Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>DSP Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>HDFC Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>IDBI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>IDFC Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Equity Savings Dhan Sanchay Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Principal Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>SBI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Tata Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Union Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>UTI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), CRISIL Short-Term Bond TRI(30.00), S&amp;P BSE 200 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY Equity Savings Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), NIFTY Short Duration TRI(35.00), NIFTY 100 TRI(25.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(70.00), NIFTY 500 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), CRISIL Short-Term Bond TRI(30.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(40.00), CRISIL Short-Term Bond TRI(30.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(70.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(75.00), NIFTY 50 TRI(25.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 TRI(55.00), CRISIL Composite Bond TRI(30.00), CRISIL Liquid TRI(15.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(70.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Equity Saving Index</t>
+  </si>
+  <si>
+    <t>17.3500</t>
+  </si>
+  <si>
+    <t>16.3800</t>
+  </si>
+  <si>
+    <t>11.8600</t>
+  </si>
+  <si>
+    <t>15.8290</t>
+  </si>
+  <si>
+    <t>17.6985</t>
+  </si>
+  <si>
+    <t>12.2218</t>
+  </si>
+  <si>
+    <t>46.5230</t>
+  </si>
+  <si>
+    <t>14.6200</t>
+  </si>
+  <si>
+    <t>21.2031</t>
+  </si>
+  <si>
+    <t>24.6100</t>
+  </si>
+  <si>
+    <t>12.1210</t>
+  </si>
+  <si>
+    <t>17.6713</t>
+  </si>
+  <si>
+    <t>22.0120</t>
+  </si>
+  <si>
+    <t>15.0980</t>
+  </si>
+  <si>
+    <t>13.5420</t>
+  </si>
+  <si>
+    <t>12.2086</t>
+  </si>
+  <si>
+    <t>39.6831</t>
+  </si>
+  <si>
+    <t>47.7458</t>
+  </si>
+  <si>
+    <t>17.0396</t>
+  </si>
+  <si>
+    <t>12.3097</t>
+  </si>
+  <si>
+    <t>41.5141</t>
+  </si>
+  <si>
+    <t>12.6300</t>
+  </si>
+  <si>
+    <t>12.2664</t>
+  </si>
+  <si>
+    <t>25.27</t>
+  </si>
+  <si>
+    <t>24.85</t>
+  </si>
+  <si>
+    <t>18.13</t>
+  </si>
+  <si>
+    <t>25.26</t>
+  </si>
+  <si>
+    <t>21.69</t>
+  </si>
+  <si>
+    <t>25.60</t>
+  </si>
+  <si>
+    <t>29.42</t>
+  </si>
+  <si>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>23.38</t>
+  </si>
+  <si>
+    <t>23.54</t>
+  </si>
+  <si>
+    <t>17.61</t>
+  </si>
+  <si>
+    <t>23.43</t>
+  </si>
+  <si>
+    <t>28.56</t>
+  </si>
+  <si>
+    <t>35.02</t>
+  </si>
+  <si>
+    <t>32.30</t>
+  </si>
+  <si>
+    <t>23.28</t>
+  </si>
+  <si>
+    <t>20.95</t>
+  </si>
+  <si>
+    <t>30.89</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>21.92</t>
+  </si>
+  <si>
+    <t>21.84</t>
+  </si>
+  <si>
+    <t>22.86</t>
+  </si>
+  <si>
+    <t>26.70</t>
+  </si>
+  <si>
+    <t>8.93</t>
+  </si>
+  <si>
+    <t>10.73</t>
+  </si>
+  <si>
+    <t>8.05</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>8.21</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>9.31</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>10.58</t>
+  </si>
+  <si>
+    <t>-1.63</t>
+  </si>
+  <si>
+    <t>8.36</t>
+  </si>
+  <si>
+    <t>9.39</t>
+  </si>
+  <si>
+    <t>10.84</t>
+  </si>
+  <si>
+    <t>10.88</t>
+  </si>
+  <si>
+    <t>10.44</t>
+  </si>
+  <si>
+    <t>12.23</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>7.33</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>10.42</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Axis Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>DSP Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Essel Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>HDFC Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>IDFC Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>ITI Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>JM Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Arbitrage Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Principal Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>SBI Arbitrage Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Tata Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Union Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>UTI Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage Total Return Index</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid Fund Total Return Index</t>
+  </si>
+  <si>
+    <t>21.7031</t>
+  </si>
+  <si>
+    <t>15.3897</t>
+  </si>
+  <si>
+    <t>12.9470</t>
+  </si>
+  <si>
+    <t>11.4210</t>
+  </si>
+  <si>
+    <t>11.9420</t>
+  </si>
+  <si>
+    <t>15.6989</t>
+  </si>
+  <si>
+    <t>10.8380</t>
+  </si>
+  <si>
+    <t>15.3790</t>
+  </si>
+  <si>
+    <t>27.9571</t>
+  </si>
+  <si>
+    <t>26.6649</t>
+  </si>
+  <si>
+    <t>14.7409</t>
+  </si>
+  <si>
+    <t>25.9269</t>
+  </si>
+  <si>
+    <t>10.6015</t>
+  </si>
+  <si>
+    <t>26.9350</t>
+  </si>
+  <si>
+    <t>30.1800</t>
+  </si>
+  <si>
+    <t>11.0770</t>
+  </si>
+  <si>
+    <t>15.5270</t>
+  </si>
+  <si>
+    <t>21.7536</t>
+  </si>
+  <si>
+    <t>15.1067</t>
+  </si>
+  <si>
+    <t>11.8697</t>
+  </si>
+  <si>
+    <t>27.1903</t>
+  </si>
+  <si>
+    <t>10.4583</t>
+  </si>
+  <si>
+    <t>11.4267</t>
+  </si>
+  <si>
+    <t>11.1421</t>
+  </si>
+  <si>
+    <t>28.3580</t>
+  </si>
+  <si>
+    <t>3.79</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>3.91</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5.86</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>5.87</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>5.76</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>1.94</t>
+  </si>
+  <si>
+    <t>5.47</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>6.37</t>
+  </si>
+  <si>
+    <t>6.44</t>
+  </si>
+  <si>
+    <t>6.24</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>5.91</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>5.27</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>6.43</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>Axis Triple Advantage</t>
+  </si>
+  <si>
+    <t>Essel 3 in 1 Fund</t>
+  </si>
+  <si>
+    <t>HDFC Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>Quant Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>SBI Multi Asset Allocation Fund</t>
+  </si>
+  <si>
+    <t>Tata Multi Asset Opportunities Fund</t>
+  </si>
+  <si>
+    <t>UTI Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 TRI(65.00), NIFTY Composite Debt TRI(20.00), Domestic Price of Gold(15.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), NIFTY 50 TRI(30.00), CRISIL Composite Bond TRI(15.00), London Gold(15.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Composite Debt 65:35(90.00), Domestic Price of Gold(10.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 200 TRI(65.00), NIFTY Composite Debt TRI(25.00), London Gold(10.00)</t>
+  </si>
+  <si>
+    <t>London Gold(34.00), CRISIL Composite Bond TRI(33.00), NIFTY 50 TRI(33.00)</t>
+  </si>
+  <si>
+    <t>CRISIL 10-Year Gilt(45.00), NIFTY 50 TRI(40.00), Domestic Price of Gold(15.00)</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(65.00), MCX I-COMDEX Composite Index(20.00), CRISIL Short-Term Bond TRI(15.00)</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(65.00), CRISIL Composite Bond TRI(25.00), Domestic Price of Gold(10.00)</t>
+  </si>
+  <si>
+    <t>28.4762</t>
+  </si>
+  <si>
+    <t>24.2781</t>
+  </si>
+  <si>
+    <t>43.5510</t>
+  </si>
+  <si>
+    <t>362.0314</t>
+  </si>
+  <si>
+    <t>53.2927</t>
+  </si>
+  <si>
+    <t>35.3507</t>
+  </si>
+  <si>
+    <t>13.6411</t>
+  </si>
+  <si>
+    <t>42.8994</t>
+  </si>
+  <si>
+    <t>42.21</t>
+  </si>
+  <si>
+    <t>39.33</t>
+  </si>
+  <si>
+    <t>44.29</t>
+  </si>
+  <si>
+    <t>55.16</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>27.59</t>
+  </si>
+  <si>
+    <t>45.26</t>
+  </si>
+  <si>
+    <t>31.81</t>
+  </si>
+  <si>
+    <t>13.96</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>10.74</t>
+  </si>
+  <si>
+    <t>10.90</t>
+  </si>
+  <si>
+    <t>15.51</t>
+  </si>
+  <si>
+    <t>9.65</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>12.96</t>
+  </si>
+  <si>
+    <t>9.82</t>
+  </si>
+  <si>
+    <t>10.94</t>
+  </si>
+  <si>
+    <t>15.68</t>
+  </si>
+  <si>
+    <t>11.94</t>
+  </si>
+  <si>
+    <t>9.97</t>
   </si>
 </sst>
 </file>
@@ -909,10 +1993,10 @@
         <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -932,10 +2016,10 @@
         <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -955,10 +2039,10 @@
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -978,10 +2062,10 @@
         <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1001,10 +2085,10 @@
         <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1024,10 +2108,10 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1047,10 +2131,10 @@
         <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1070,10 +2154,10 @@
         <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1093,10 +2177,10 @@
         <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1116,10 +2200,10 @@
         <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,10 +2223,10 @@
         <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1162,10 +2246,10 @@
         <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1185,10 +2269,10 @@
         <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1208,10 +2292,10 @@
         <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1231,10 +2315,10 @@
         <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1254,10 +2338,10 @@
         <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1277,10 +2361,10 @@
         <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1300,10 +2384,10 @@
         <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1323,10 +2407,10 @@
         <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1346,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1369,10 +2453,10 @@
         <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1392,10 +2476,10 @@
         <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1415,10 +2499,10 @@
         <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1438,10 +2522,10 @@
         <v>104</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1461,10 +2545,10 @@
         <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1481,13 +2565,13 @@
         <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1504,13 +2588,13 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1527,13 +2611,13 @@
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1550,13 +2634,13 @@
         <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1573,13 +2657,13 @@
         <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1596,13 +2680,13 @@
         <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1619,13 +2703,13 @@
         <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1642,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1665,13 +2749,1916 @@
         <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" t="s">
+        <v>250</v>
+      </c>
+      <c r="G21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F18" t="s">
+        <v>362</v>
+      </c>
+      <c r="G18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>326</v>
+      </c>
+      <c r="E23" t="s">
+        <v>349</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" t="s">
+        <v>438</v>
+      </c>
+      <c r="F12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F13" t="s">
+        <v>462</v>
+      </c>
+      <c r="G13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E15" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" t="s">
+        <v>464</v>
+      </c>
+      <c r="G18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" t="s">
+        <v>455</v>
+      </c>
+      <c r="G19" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" t="s">
+        <v>446</v>
+      </c>
+      <c r="F20" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" t="s">
+        <v>447</v>
+      </c>
+      <c r="F21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" t="s">
+        <v>448</v>
+      </c>
+      <c r="F22" t="s">
+        <v>467</v>
+      </c>
+      <c r="G22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E23" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E24" t="s">
+        <v>450</v>
+      </c>
+      <c r="F24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" t="s">
+        <v>451</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E4" t="s">
+        <v>506</v>
+      </c>
+      <c r="F4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" t="s">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F6" t="s">
+        <v>516</v>
+      </c>
+      <c r="G6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F9" t="s">
+        <v>518</v>
+      </c>
+      <c r="G9" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/Hybrid_Fund_Direct_Performance.xlsx
+++ b/Hybrid_Fund_Direct_Performance.xlsx
@@ -7,16 +7,1614 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aggressive Hybrid" sheetId="1" r:id="rId1"/>
+    <sheet name="Conservative Hybrid" sheetId="2" r:id="rId2"/>
+    <sheet name="Equity Savings" sheetId="3" r:id="rId3"/>
+    <sheet name="Arbitrage" sheetId="4" r:id="rId4"/>
+    <sheet name="Multi Asset Allocation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="527">
+  <si>
+    <t>scheme_name</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>latest NAV- Direct</t>
+  </si>
+  <si>
+    <t>1-Year Return(%)- Direct</t>
+  </si>
+  <si>
+    <t>3-Year Return(%)- Direct</t>
+  </si>
+  <si>
+    <t>5-Year Return(%)- Direct</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Equity Hybrid '95 Fund</t>
+  </si>
+  <si>
+    <t>Axis Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Baroda Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Substantial Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Mid &amp; Small Cap Equity &amp; Debt Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>DSP Equity &amp; Bond Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Aggressive Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>HDFC Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>HSBC Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity &amp; Debt Fund</t>
+  </si>
+  <si>
+    <t>IDBI Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>IDFC Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Equity &amp; Bond Fund</t>
+  </si>
+  <si>
+    <t>JM Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>LIC MF ULIS Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Hybrid Equity Nivesh Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Motilal Oswal Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Navi Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Principal Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Quant Absolute Fund</t>
+  </si>
+  <si>
+    <t>SBI Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Shriram Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Equity Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Tata Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>UTI Hybrid Equity Fund</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 35+65 Aggressive Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY Mid Small Cap 400 TRI(70.00), CRISIL Short-Term Bond TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Composite Debt 65:35 Index</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(70.00), CRISIL Composite Bond TRI(30.00)</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(65.00), Nifty AAA Short Duration Bond(35.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 25+75 Aggressive Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 TRI(70.00), CRISIL Composite Bond TRI(30.00)</t>
+  </si>
+  <si>
+    <t>1,112.0900</t>
+  </si>
+  <si>
+    <t>15.4100</t>
+  </si>
+  <si>
+    <t>84.4300</t>
+  </si>
+  <si>
+    <t>19.1126</t>
+  </si>
+  <si>
+    <t>22.7400</t>
+  </si>
+  <si>
+    <t>252.8300</t>
+  </si>
+  <si>
+    <t>246.2560</t>
+  </si>
+  <si>
+    <t>38.6300</t>
+  </si>
+  <si>
+    <t>185.8585</t>
+  </si>
+  <si>
+    <t>79.7270</t>
+  </si>
+  <si>
+    <t>15.6904</t>
+  </si>
+  <si>
+    <t>213.4100</t>
+  </si>
+  <si>
+    <t>15.9967</t>
+  </si>
+  <si>
+    <t>17.6200</t>
+  </si>
+  <si>
+    <t>14.6024</t>
+  </si>
+  <si>
+    <t>14.6381</t>
+  </si>
+  <si>
+    <t>70.6709</t>
+  </si>
+  <si>
+    <t>25.5440</t>
+  </si>
+  <si>
+    <t>145.1947</t>
+  </si>
+  <si>
+    <t>26.9494</t>
+  </si>
+  <si>
+    <t>39.0630</t>
+  </si>
+  <si>
+    <t>16.4671</t>
+  </si>
+  <si>
+    <t>23.2990</t>
+  </si>
+  <si>
+    <t>15.4345</t>
+  </si>
+  <si>
+    <t>14.1915</t>
+  </si>
+  <si>
+    <t>68.9113</t>
+  </si>
+  <si>
+    <t>105.9300</t>
+  </si>
+  <si>
+    <t>114.9200</t>
+  </si>
+  <si>
+    <t>271.2124</t>
+  </si>
+  <si>
+    <t>205.8558</t>
+  </si>
+  <si>
+    <t>23.6012</t>
+  </si>
+  <si>
+    <t>136.5664</t>
+  </si>
+  <si>
+    <t>313.6435</t>
+  </si>
+  <si>
+    <t>247.8734</t>
+  </si>
+  <si>
+    <t>46.41</t>
+  </si>
+  <si>
+    <t>37.84</t>
+  </si>
+  <si>
+    <t>43.04</t>
+  </si>
+  <si>
+    <t>40.15</t>
+  </si>
+  <si>
+    <t>72.41</t>
+  </si>
+  <si>
+    <t>38.04</t>
+  </si>
+  <si>
+    <t>44.06</t>
+  </si>
+  <si>
+    <t>43.43</t>
+  </si>
+  <si>
+    <t>46.83</t>
+  </si>
+  <si>
+    <t>46.42</t>
+  </si>
+  <si>
+    <t>36.11</t>
+  </si>
+  <si>
+    <t>54.02</t>
+  </si>
+  <si>
+    <t>29.52</t>
+  </si>
+  <si>
+    <t>49.50</t>
+  </si>
+  <si>
+    <t>35.74</t>
+  </si>
+  <si>
+    <t>34.78</t>
+  </si>
+  <si>
+    <t>44.67</t>
+  </si>
+  <si>
+    <t>51.16</t>
+  </si>
+  <si>
+    <t>31.73</t>
+  </si>
+  <si>
+    <t>42.24</t>
+  </si>
+  <si>
+    <t>37.49</t>
+  </si>
+  <si>
+    <t>48.56</t>
+  </si>
+  <si>
+    <t>40.48</t>
+  </si>
+  <si>
+    <t>30.45</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>46.75</t>
+  </si>
+  <si>
+    <t>42.26</t>
+  </si>
+  <si>
+    <t>40.79</t>
+  </si>
+  <si>
+    <t>72.44</t>
+  </si>
+  <si>
+    <t>37.44</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>38.73</t>
+  </si>
+  <si>
+    <t>41.87</t>
+  </si>
+  <si>
+    <t>47.57</t>
+  </si>
+  <si>
+    <t>10.86</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>11.37</t>
+  </si>
+  <si>
+    <t>18.06</t>
+  </si>
+  <si>
+    <t>16.19</t>
+  </si>
+  <si>
+    <t>16.11</t>
+  </si>
+  <si>
+    <t>15.77</t>
+  </si>
+  <si>
+    <t>14.01</t>
+  </si>
+  <si>
+    <t>13.76</t>
+  </si>
+  <si>
+    <t>13.35</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>7.86</t>
+  </si>
+  <si>
+    <t>12.90</t>
+  </si>
+  <si>
+    <t>11.86</t>
+  </si>
+  <si>
+    <t>13.23</t>
+  </si>
+  <si>
+    <t>16.44</t>
+  </si>
+  <si>
+    <t>12.33</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>11.41</t>
+  </si>
+  <si>
+    <t>15.69</t>
+  </si>
+  <si>
+    <t>11.09</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>12.81</t>
+  </si>
+  <si>
+    <t>11.85</t>
+  </si>
+  <si>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>14.31</t>
+  </si>
+  <si>
+    <t>11.07</t>
+  </si>
+  <si>
+    <t>13.37</t>
+  </si>
+  <si>
+    <t>12.44</t>
+  </si>
+  <si>
+    <t>12.03</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>11.95</t>
+  </si>
+  <si>
+    <t>17.24</t>
+  </si>
+  <si>
+    <t>15.38</t>
+  </si>
+  <si>
+    <t>14.51</t>
+  </si>
+  <si>
+    <t>12.40</t>
+  </si>
+  <si>
+    <t>13.72</t>
+  </si>
+  <si>
+    <t>15.12</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>12.37</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>15.76</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>11.74</t>
+  </si>
+  <si>
+    <t>14.93</t>
+  </si>
+  <si>
+    <t>19.32</t>
+  </si>
+  <si>
+    <t>13.85</t>
+  </si>
+  <si>
+    <t>10.92</t>
+  </si>
+  <si>
+    <t>13.81</t>
+  </si>
+  <si>
+    <t>10.75</t>
+  </si>
+  <si>
+    <t>11.76</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Axis Regular Saver Fund</t>
+  </si>
+  <si>
+    <t>Baroda Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Canara Robeco Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>DSP Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>HDFC Hybrid Debt Fund</t>
+  </si>
+  <si>
+    <t>HSBC Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>IDFC Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Savings Income Fund</t>
+  </si>
+  <si>
+    <t>Kotak Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Conservative Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Navi Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Hybrid Bond Fund</t>
+  </si>
+  <si>
+    <t>SBI Debt Hybrid Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Debt Oriented Hybrid Fund</t>
+  </si>
+  <si>
+    <t>UTI Regular Savings Fund</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 85+15 Conservative Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Short Duration Debt 25:75 Index</t>
+  </si>
+  <si>
+    <t>CRISIL Short Term Debt Hybrid 75+25 Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Composite Debt 15:85 Index</t>
+  </si>
+  <si>
+    <t>Nifty AAA Short Duration Bond(85.00), S&amp;P BSE 200 TRI(15.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Hybrid 75+25 Conservative Total Return Index</t>
+  </si>
+  <si>
+    <t>52.1669</t>
+  </si>
+  <si>
+    <t>26.2665</t>
+  </si>
+  <si>
+    <t>32.2649</t>
+  </si>
+  <si>
+    <t>39.2537</t>
+  </si>
+  <si>
+    <t>23.4887</t>
+  </si>
+  <si>
+    <t>80.2447</t>
+  </si>
+  <si>
+    <t>47.2801</t>
+  </si>
+  <si>
+    <t>71.0434</t>
+  </si>
+  <si>
+    <t>60.0937</t>
+  </si>
+  <si>
+    <t>48.0871</t>
+  </si>
+  <si>
+    <t>56.7135</t>
+  </si>
+  <si>
+    <t>27.4421</t>
+  </si>
+  <si>
+    <t>17.0738</t>
+  </si>
+  <si>
+    <t>44.9652</t>
+  </si>
+  <si>
+    <t>70.3984</t>
+  </si>
+  <si>
+    <t>44.5757</t>
+  </si>
+  <si>
+    <t>24.7683</t>
+  </si>
+  <si>
+    <t>45.6305</t>
+  </si>
+  <si>
+    <t>54.4228</t>
+  </si>
+  <si>
+    <t>23.2364</t>
+  </si>
+  <si>
+    <t>51.5276</t>
+  </si>
+  <si>
+    <t>23.25</t>
+  </si>
+  <si>
+    <t>16.43</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>12.31</t>
+  </si>
+  <si>
+    <t>12.49</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>16.07</t>
+  </si>
+  <si>
+    <t>20.90</t>
+  </si>
+  <si>
+    <t>14.02</t>
+  </si>
+  <si>
+    <t>14.25</t>
+  </si>
+  <si>
+    <t>10.57</t>
+  </si>
+  <si>
+    <t>14.21</t>
+  </si>
+  <si>
+    <t>20.44</t>
+  </si>
+  <si>
+    <t>10.08</t>
+  </si>
+  <si>
+    <t>12.57</t>
+  </si>
+  <si>
+    <t>10.56</t>
+  </si>
+  <si>
+    <t>12.89</t>
+  </si>
+  <si>
+    <t>19.88</t>
+  </si>
+  <si>
+    <t>11.38</t>
+  </si>
+  <si>
+    <t>18.45</t>
+  </si>
+  <si>
+    <t>8.20</t>
+  </si>
+  <si>
+    <t>8.33</t>
+  </si>
+  <si>
+    <t>10.81</t>
+  </si>
+  <si>
+    <t>9.42</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>11.89</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>8.17</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>8.14</t>
+  </si>
+  <si>
+    <t>7.94</t>
+  </si>
+  <si>
+    <t>12.22</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>8.61</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>10.72</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>8.31</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>7.39</t>
+  </si>
+  <si>
+    <t>7.30</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>7.71</t>
+  </si>
+  <si>
+    <t>9.69</t>
+  </si>
+  <si>
+    <t>10.54</t>
+  </si>
+  <si>
+    <t>7.64</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>9.03</t>
+  </si>
+  <si>
+    <t>6.58</t>
+  </si>
+  <si>
+    <t>7.83</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Axis Equity Saver Fund</t>
+  </si>
+  <si>
+    <t>Baroda Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>DSP Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Franklin India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>HDFC Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>IDBI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>IDFC Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Mahindra Manulife Equity Savings Dhan Sanchay Yojana</t>
+  </si>
+  <si>
+    <t>Mirae Asset Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Principal Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>SBI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Tata Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>Union Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>UTI Equity Savings Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), CRISIL Short-Term Bond TRI(30.00), S&amp;P BSE 200 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY Equity Savings Total Return Index</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), NIFTY Short Duration TRI(35.00), NIFTY 100 TRI(25.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(70.00), NIFTY 500 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), CRISIL Short-Term Bond TRI(30.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(40.00), CRISIL Short-Term Bond TRI(30.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Liquid TRI(70.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(75.00), NIFTY 50 TRI(25.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(70.00), NIFTY 50 TRI(30.00)</t>
+  </si>
+  <si>
+    <t>CRISIL Equity Saving Index</t>
+  </si>
+  <si>
+    <t>18.2600</t>
+  </si>
+  <si>
+    <t>17.5900</t>
+  </si>
+  <si>
+    <t>12.2500</t>
+  </si>
+  <si>
+    <t>17.0710</t>
+  </si>
+  <si>
+    <t>18.8161</t>
+  </si>
+  <si>
+    <t>12.9738</t>
+  </si>
+  <si>
+    <t>50.0830</t>
+  </si>
+  <si>
+    <t>17.3600</t>
+  </si>
+  <si>
+    <t>22.0510</t>
+  </si>
+  <si>
+    <t>25.7300</t>
+  </si>
+  <si>
+    <t>12.8393</t>
+  </si>
+  <si>
+    <t>18.4779</t>
+  </si>
+  <si>
+    <t>23.8250</t>
+  </si>
+  <si>
+    <t>16.2856</t>
+  </si>
+  <si>
+    <t>14.5430</t>
+  </si>
+  <si>
+    <t>12.8132</t>
+  </si>
+  <si>
+    <t>42.3989</t>
+  </si>
+  <si>
+    <t>51.5196</t>
+  </si>
+  <si>
+    <t>18.0346</t>
+  </si>
+  <si>
+    <t>12.8733</t>
+  </si>
+  <si>
+    <t>43.4365</t>
+  </si>
+  <si>
+    <t>13.1600</t>
+  </si>
+  <si>
+    <t>13.0156</t>
+  </si>
+  <si>
+    <t>24.24</t>
+  </si>
+  <si>
+    <t>24.16</t>
+  </si>
+  <si>
+    <t>9.71</t>
+  </si>
+  <si>
+    <t>25.18</t>
+  </si>
+  <si>
+    <t>18.64</t>
+  </si>
+  <si>
+    <t>24.23</t>
+  </si>
+  <si>
+    <t>28.05</t>
+  </si>
+  <si>
+    <t>16.26</t>
+  </si>
+  <si>
+    <t>20.04</t>
+  </si>
+  <si>
+    <t>15.29</t>
+  </si>
+  <si>
+    <t>15.94</t>
+  </si>
+  <si>
+    <t>16.56</t>
+  </si>
+  <si>
+    <t>26.71</t>
+  </si>
+  <si>
+    <t>27.96</t>
+  </si>
+  <si>
+    <t>26.55</t>
+  </si>
+  <si>
+    <t>20.30</t>
+  </si>
+  <si>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>25.89</t>
+  </si>
+  <si>
+    <t>23.80</t>
+  </si>
+  <si>
+    <t>15.99</t>
+  </si>
+  <si>
+    <t>18.26</t>
+  </si>
+  <si>
+    <t>15.25</t>
+  </si>
+  <si>
+    <t>22.66</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>10.37</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>8.74</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>9.14</t>
+  </si>
+  <si>
+    <t>9.13</t>
+  </si>
+  <si>
+    <t>12.68</t>
+  </si>
+  <si>
+    <t>-1.24</t>
+  </si>
+  <si>
+    <t>8.77</t>
+  </si>
+  <si>
+    <t>11.68</t>
+  </si>
+  <si>
+    <t>9.16</t>
+  </si>
+  <si>
+    <t>10.38</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>10.83</t>
+  </si>
+  <si>
+    <t>8.62</t>
+  </si>
+  <si>
+    <t>7.45</t>
+  </si>
+  <si>
+    <t>7.53</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>8.79</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>9.55</t>
+  </si>
+  <si>
+    <t>7.79</t>
+  </si>
+  <si>
+    <t>Aditya Birla Sun Life Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Axis Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>BNP Paribas Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>BOI AXA Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>DSP Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Edelweiss Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>HDFC Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Equity Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>IDFC Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Indiabulls Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Invesco India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>ITI Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>JM Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Kotak Equity Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>LIC MF Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>L&amp;T Arbitrage Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Mirae Asset Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Nippon India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>PGIM India Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Principal Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>SBI Arbitrage Opportunities Fund</t>
+  </si>
+  <si>
+    <t>Sundaram Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Tata Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>Union Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>UTI Arbitrage Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage Total Return Index</t>
+  </si>
+  <si>
+    <t>22.1974</t>
+  </si>
+  <si>
+    <t>15.7120</t>
+  </si>
+  <si>
+    <t>13.2210</t>
+  </si>
+  <si>
+    <t>11.5947</t>
+  </si>
+  <si>
+    <t>12.1950</t>
+  </si>
+  <si>
+    <t>16.0438</t>
+  </si>
+  <si>
+    <t>15.7170</t>
+  </si>
+  <si>
+    <t>28.5803</t>
+  </si>
+  <si>
+    <t>27.2320</t>
+  </si>
+  <si>
+    <t>14.9802</t>
+  </si>
+  <si>
+    <t>26.4745</t>
+  </si>
+  <si>
+    <t>10.7851</t>
+  </si>
+  <si>
+    <t>27.4007</t>
+  </si>
+  <si>
+    <t>30.8479</t>
+  </si>
+  <si>
+    <t>11.2990</t>
+  </si>
+  <si>
+    <t>15.8670</t>
+  </si>
+  <si>
+    <t>10.4940</t>
+  </si>
+  <si>
+    <t>22.2342</t>
+  </si>
+  <si>
+    <t>15.4216</t>
+  </si>
+  <si>
+    <t>12.0674</t>
+  </si>
+  <si>
+    <t>27.7615</t>
+  </si>
+  <si>
+    <t>10.6974</t>
+  </si>
+  <si>
+    <t>11.6949</t>
+  </si>
+  <si>
+    <t>11.3699</t>
+  </si>
+  <si>
+    <t>29.0067</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>4.72</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>4.61</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>5.77</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>5.80</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>5.97</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>5.71</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>5.90</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>1.73</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>5.57</t>
+  </si>
+  <si>
+    <t>4.98</t>
+  </si>
+  <si>
+    <t>6.09</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>5.74</t>
+  </si>
+  <si>
+    <t>Axis Triple Advantage</t>
+  </si>
+  <si>
+    <t>HDFC Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>Navi 3 in 1 Fund</t>
+  </si>
+  <si>
+    <t>Quant Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>SBI Multi Asset Allocation Fund</t>
+  </si>
+  <si>
+    <t>Tata Multi Asset Opportunities Fund</t>
+  </si>
+  <si>
+    <t>UTI Multi Asset Fund</t>
+  </si>
+  <si>
+    <t>NIFTY 50 TRI(65.00), NIFTY Composite Debt TRI(20.00), Domestic Price of Gold(15.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Hybrid Composite Debt 65:35(90.00), Domestic Price of Gold(10.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 200 TRI(65.00), NIFTY Composite Debt TRI(25.00), London Gold(10.00)</t>
+  </si>
+  <si>
+    <t>NIFTY 50 Arbitrage TRI(40.00), NIFTY 50 TRI(30.00), CRISIL Composite Bond TRI(15.00), London Gold(15.00)</t>
+  </si>
+  <si>
+    <t>London Gold(34.00), CRISIL Composite Bond TRI(33.00), NIFTY 50 TRI(33.00)</t>
+  </si>
+  <si>
+    <t>CRISIL 10-Year Gilt(45.00), NIFTY 50 TRI(40.00), Domestic Price of Gold(15.00)</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(65.00), MCX I-COMDEX Composite Index(20.00), CRISIL Short-Term Bond TRI(15.00)</t>
+  </si>
+  <si>
+    <t>S&amp;P BSE 200 TRI(65.00), CRISIL Composite Bond TRI(25.00), Domestic Price of Gold(10.00)</t>
+  </si>
+  <si>
+    <t>31.9640</t>
+  </si>
+  <si>
+    <t>48.3340</t>
+  </si>
+  <si>
+    <t>402.9726</t>
+  </si>
+  <si>
+    <t>26.5579</t>
+  </si>
+  <si>
+    <t>73.5044</t>
+  </si>
+  <si>
+    <t>38.3530</t>
+  </si>
+  <si>
+    <t>14.9375</t>
+  </si>
+  <si>
+    <t>45.4342</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>29.38</t>
+  </si>
+  <si>
+    <t>42.31</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>60.86</t>
+  </si>
+  <si>
+    <t>16.36</t>
+  </si>
+  <si>
+    <t>36.93</t>
+  </si>
+  <si>
+    <t>18.20</t>
+  </si>
+  <si>
+    <t>15.92</t>
+  </si>
+  <si>
+    <t>13.61</t>
+  </si>
+  <si>
+    <t>14.23</t>
+  </si>
+  <si>
+    <t>28.20</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>11.66</t>
+  </si>
+  <si>
+    <t>14.22</t>
+  </si>
+  <si>
+    <t>9.97</t>
+  </si>
+  <si>
+    <t>17.84</t>
+  </si>
+  <si>
+    <t>10.26</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +1630,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +1638,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +1956,2718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>361</v>
+      </c>
+      <c r="G11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" t="s">
+        <v>365</v>
+      </c>
+      <c r="G17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" t="s">
+        <v>367</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" t="s">
+        <v>359</v>
+      </c>
+      <c r="G20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E24" t="s">
+        <v>354</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
+        <v>462</v>
+      </c>
+      <c r="G11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" t="s">
+        <v>463</v>
+      </c>
+      <c r="G12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" t="s">
+        <v>445</v>
+      </c>
+      <c r="F17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" t="s">
+        <v>446</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>399</v>
+      </c>
+      <c r="C20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F20" t="s">
+        <v>466</v>
+      </c>
+      <c r="G20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" t="s">
+        <v>426</v>
+      </c>
+      <c r="E21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G21" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" t="s">
+        <v>468</v>
+      </c>
+      <c r="G22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E23" t="s">
+        <v>450</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" t="s">
+        <v>430</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E8" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>